--- a/py/apps/web-scraper/Files/associate-arch/ACloudGuru-aws-soultions-architect-associate.xlsx
+++ b/py/apps/web-scraper/Files/associate-arch/ACloudGuru-aws-soultions-architect-associate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\Playground\py\apps\web-scraper\Files\associate-arch\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0D6FE6-6FA8-469A-9799-C6325FBEBD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -556,443 +562,443 @@
     <t>AWS Certified Solutions Architect – Associate Exam</t>
   </si>
   <si>
+    <t>05:09</t>
+  </si>
+  <si>
+    <t>13:21</t>
+  </si>
+  <si>
+    <t>06:52</t>
+  </si>
+  <si>
+    <t>15:09</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>3:37:59</t>
+  </si>
+  <si>
+    <t>04:34</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>04:51</t>
+  </si>
+  <si>
+    <t>18:39</t>
+  </si>
+  <si>
+    <t>12:37</t>
+  </si>
+  <si>
+    <t>04:38</t>
+  </si>
+  <si>
+    <t>05:07</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>03:54</t>
+  </si>
+  <si>
+    <t>05:08</t>
+  </si>
+  <si>
+    <t>06:37</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>08:18</t>
+  </si>
+  <si>
+    <t>08:32</t>
+  </si>
+  <si>
+    <t>06:25</t>
+  </si>
+  <si>
+    <t>02:48</t>
+  </si>
+  <si>
+    <t>02:05</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>06:43</t>
+  </si>
+  <si>
+    <t>04:57</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>04:28</t>
+  </si>
+  <si>
+    <t>17:28</t>
+  </si>
+  <si>
+    <t>3:39:16</t>
+  </si>
+  <si>
+    <t>14:27</t>
+  </si>
+  <si>
+    <t>20:08</t>
+  </si>
+  <si>
+    <t>08:36</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>03:41</t>
+  </si>
+  <si>
+    <t>16:58</t>
+  </si>
+  <si>
+    <t>07:28</t>
+  </si>
+  <si>
+    <t>06:53</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>07:24</t>
+  </si>
+  <si>
+    <t>04:47</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>07:57</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>06:15</t>
+  </si>
+  <si>
+    <t>04:17</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>04:35</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>03:45</t>
+  </si>
+  <si>
+    <t>18:46</t>
+  </si>
+  <si>
+    <t>1:52:16</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>03:52</t>
+  </si>
+  <si>
+    <t>13:38</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>03:17</t>
+  </si>
+  <si>
+    <t>05:26</t>
+  </si>
+  <si>
+    <t>02:59</t>
+  </si>
+  <si>
+    <t>04:10</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>36:14</t>
+  </si>
+  <si>
+    <t>07:32</t>
+  </si>
+  <si>
+    <t>15:46</t>
+  </si>
+  <si>
+    <t>04:53</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>05:06</t>
+  </si>
+  <si>
+    <t>1:13:59</t>
+  </si>
+  <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>07:46</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>03:29</t>
+  </si>
+  <si>
+    <t>07:07</t>
+  </si>
+  <si>
+    <t>04:39</t>
+  </si>
+  <si>
+    <t>04:03</t>
+  </si>
+  <si>
+    <t>03:02</t>
+  </si>
+  <si>
+    <t>05:18</t>
+  </si>
+  <si>
+    <t>2:30:04</t>
+  </si>
+  <si>
+    <t>12:11</t>
+  </si>
+  <si>
+    <t>20:27</t>
+  </si>
+  <si>
+    <t>06:39</t>
+  </si>
+  <si>
+    <t>13:01</t>
+  </si>
+  <si>
+    <t>15:12</t>
+  </si>
+  <si>
+    <t>02:19</t>
+  </si>
+  <si>
+    <t>05:45</t>
+  </si>
+  <si>
+    <t>03:28</t>
+  </si>
+  <si>
+    <t>03:39</t>
+  </si>
+  <si>
+    <t>02:37</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>10:53</t>
+  </si>
+  <si>
+    <t>03:36</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>03:35</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>2:28:52</t>
+  </si>
+  <si>
+    <t>06:06</t>
+  </si>
+  <si>
+    <t>15:43</t>
+  </si>
+  <si>
+    <t>07:03</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>08:19</t>
+  </si>
+  <si>
+    <t>10:31</t>
+  </si>
+  <si>
+    <t>21:24</t>
+  </si>
+  <si>
+    <t>20:09</t>
+  </si>
+  <si>
+    <t>04:12</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>04:19</t>
+  </si>
+  <si>
+    <t>04:37</t>
+  </si>
+  <si>
+    <t>1:21:22</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>05:47</t>
+  </si>
+  <si>
+    <t>04:05</t>
+  </si>
+  <si>
+    <t>02:35</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>09:08</t>
+  </si>
+  <si>
+    <t>07:23</t>
+  </si>
+  <si>
+    <t>08:13</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>46:03</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>03:49</t>
+  </si>
+  <si>
+    <t>13:08</t>
+  </si>
+  <si>
+    <t>02:18</t>
+  </si>
+  <si>
+    <t>03:15</t>
+  </si>
+  <si>
+    <t>04:23</t>
+  </si>
+  <si>
+    <t>1:30:57</t>
+  </si>
+  <si>
+    <t>13:31</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>16:57</t>
+  </si>
+  <si>
+    <t>09:23</t>
+  </si>
+  <si>
+    <t>18:09</t>
+  </si>
+  <si>
+    <t>2:49:55</t>
+  </si>
+  <si>
+    <t>01:26</t>
+  </si>
+  <si>
+    <t>2:15:00</t>
+  </si>
+  <si>
     <t>19:49</t>
   </si>
   <si>
     <t>01:19</t>
   </si>
   <si>
-    <t>05:09</t>
-  </si>
-  <si>
-    <t>13:21</t>
-  </si>
-  <si>
     <t>40:17</t>
-  </si>
-  <si>
-    <t>06:52</t>
-  </si>
-  <si>
-    <t>15:09</t>
-  </si>
-  <si>
-    <t>03:16</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>3:37:59</t>
-  </si>
-  <si>
-    <t>04:34</t>
-  </si>
-  <si>
-    <t>17:35</t>
-  </si>
-  <si>
-    <t>04:51</t>
-  </si>
-  <si>
-    <t>18:39</t>
-  </si>
-  <si>
-    <t>12:37</t>
-  </si>
-  <si>
-    <t>04:38</t>
-  </si>
-  <si>
-    <t>05:07</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>03:54</t>
-  </si>
-  <si>
-    <t>05:08</t>
-  </si>
-  <si>
-    <t>06:37</t>
-  </si>
-  <si>
-    <t>02:40</t>
-  </si>
-  <si>
-    <t>08:18</t>
-  </si>
-  <si>
-    <t>08:32</t>
-  </si>
-  <si>
-    <t>06:25</t>
-  </si>
-  <si>
-    <t>02:48</t>
-  </si>
-  <si>
-    <t>02:05</t>
-  </si>
-  <si>
-    <t>07:17</t>
-  </si>
-  <si>
-    <t>06:43</t>
-  </si>
-  <si>
-    <t>04:57</t>
-  </si>
-  <si>
-    <t>08:34</t>
-  </si>
-  <si>
-    <t>10:25</t>
-  </si>
-  <si>
-    <t>04:28</t>
-  </si>
-  <si>
-    <t>17:28</t>
-  </si>
-  <si>
-    <t>3:39:16</t>
-  </si>
-  <si>
-    <t>14:27</t>
-  </si>
-  <si>
-    <t>20:08</t>
-  </si>
-  <si>
-    <t>08:36</t>
-  </si>
-  <si>
-    <t>10:02</t>
-  </si>
-  <si>
-    <t>03:41</t>
-  </si>
-  <si>
-    <t>16:58</t>
-  </si>
-  <si>
-    <t>07:28</t>
-  </si>
-  <si>
-    <t>06:53</t>
-  </si>
-  <si>
-    <t>06:22</t>
-  </si>
-  <si>
-    <t>08:48</t>
-  </si>
-  <si>
-    <t>07:24</t>
-  </si>
-  <si>
-    <t>04:47</t>
-  </si>
-  <si>
-    <t>08:28</t>
-  </si>
-  <si>
-    <t>07:57</t>
-  </si>
-  <si>
-    <t>05:20</t>
-  </si>
-  <si>
-    <t>06:15</t>
-  </si>
-  <si>
-    <t>04:17</t>
-  </si>
-  <si>
-    <t>12:05</t>
-  </si>
-  <si>
-    <t>04:35</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>03:45</t>
-  </si>
-  <si>
-    <t>18:46</t>
-  </si>
-  <si>
-    <t>1:52:16</t>
-  </si>
-  <si>
-    <t>11:40</t>
-  </si>
-  <si>
-    <t>07:21</t>
-  </si>
-  <si>
-    <t>08:04</t>
-  </si>
-  <si>
-    <t>03:52</t>
-  </si>
-  <si>
-    <t>13:38</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>03:17</t>
-  </si>
-  <si>
-    <t>05:26</t>
-  </si>
-  <si>
-    <t>02:59</t>
-  </si>
-  <si>
-    <t>04:10</t>
-  </si>
-  <si>
-    <t>05:52</t>
-  </si>
-  <si>
-    <t>36:14</t>
-  </si>
-  <si>
-    <t>07:32</t>
-  </si>
-  <si>
-    <t>15:46</t>
-  </si>
-  <si>
-    <t>04:53</t>
-  </si>
-  <si>
-    <t>02:57</t>
-  </si>
-  <si>
-    <t>05:06</t>
-  </si>
-  <si>
-    <t>1:13:59</t>
-  </si>
-  <si>
-    <t>13:56</t>
-  </si>
-  <si>
-    <t>07:46</t>
-  </si>
-  <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>03:29</t>
-  </si>
-  <si>
-    <t>07:07</t>
-  </si>
-  <si>
-    <t>04:39</t>
-  </si>
-  <si>
-    <t>04:03</t>
-  </si>
-  <si>
-    <t>03:02</t>
-  </si>
-  <si>
-    <t>05:18</t>
-  </si>
-  <si>
-    <t>2:30:04</t>
-  </si>
-  <si>
-    <t>12:11</t>
-  </si>
-  <si>
-    <t>20:27</t>
-  </si>
-  <si>
-    <t>06:39</t>
-  </si>
-  <si>
-    <t>13:01</t>
-  </si>
-  <si>
-    <t>15:12</t>
-  </si>
-  <si>
-    <t>02:19</t>
-  </si>
-  <si>
-    <t>05:45</t>
-  </si>
-  <si>
-    <t>03:28</t>
-  </si>
-  <si>
-    <t>03:39</t>
-  </si>
-  <si>
-    <t>02:37</t>
-  </si>
-  <si>
-    <t>11:47</t>
-  </si>
-  <si>
-    <t>10:53</t>
-  </si>
-  <si>
-    <t>03:36</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>03:35</t>
-  </si>
-  <si>
-    <t>15:15</t>
-  </si>
-  <si>
-    <t>2:28:52</t>
-  </si>
-  <si>
-    <t>06:06</t>
-  </si>
-  <si>
-    <t>15:43</t>
-  </si>
-  <si>
-    <t>07:03</t>
-  </si>
-  <si>
-    <t>05:15</t>
-  </si>
-  <si>
-    <t>08:19</t>
-  </si>
-  <si>
-    <t>10:31</t>
-  </si>
-  <si>
-    <t>21:24</t>
-  </si>
-  <si>
-    <t>20:09</t>
-  </si>
-  <si>
-    <t>04:12</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>04:19</t>
-  </si>
-  <si>
-    <t>04:37</t>
-  </si>
-  <si>
-    <t>1:21:22</t>
-  </si>
-  <si>
-    <t>10:50</t>
-  </si>
-  <si>
-    <t>05:47</t>
-  </si>
-  <si>
-    <t>04:05</t>
-  </si>
-  <si>
-    <t>02:35</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>09:08</t>
-  </si>
-  <si>
-    <t>07:23</t>
-  </si>
-  <si>
-    <t>08:13</t>
-  </si>
-  <si>
-    <t>08:38</t>
-  </si>
-  <si>
-    <t>46:03</t>
-  </si>
-  <si>
-    <t>05:35</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>03:49</t>
-  </si>
-  <si>
-    <t>13:08</t>
-  </si>
-  <si>
-    <t>02:18</t>
-  </si>
-  <si>
-    <t>03:15</t>
-  </si>
-  <si>
-    <t>04:23</t>
-  </si>
-  <si>
-    <t>1:30:57</t>
-  </si>
-  <si>
-    <t>13:31</t>
-  </si>
-  <si>
-    <t>14:12</t>
-  </si>
-  <si>
-    <t>16:57</t>
-  </si>
-  <si>
-    <t>09:23</t>
-  </si>
-  <si>
-    <t>18:09</t>
-  </si>
-  <si>
-    <t>2:49:55</t>
-  </si>
-  <si>
-    <t>01:26</t>
-  </si>
-  <si>
-    <t>2:15:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,17 +1050,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1101,7 +1116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,9 +1148,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,6 +1200,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1342,14 +1393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1409,11 +1462,11 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1441,11 +1494,11 @@
       <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1474,10 +1527,10 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1506,10 +1559,10 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1537,11 +1590,11 @@
       <c r="I6">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1570,10 +1623,10 @@
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1602,10 +1655,10 @@
         <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1634,10 +1687,10 @@
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1666,10 +1719,10 @@
         <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1698,10 +1751,10 @@
         <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1730,10 +1783,10 @@
         <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1762,10 +1815,10 @@
         <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1794,10 +1847,10 @@
         <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1826,10 +1879,10 @@
         <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1858,10 +1911,10 @@
         <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1890,10 +1943,10 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,10 +1975,10 @@
         <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1954,10 +2007,10 @@
         <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1986,10 +2039,10 @@
         <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2018,10 +2071,10 @@
         <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2050,10 +2103,10 @@
         <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2082,10 +2135,10 @@
         <v>46</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2114,10 +2167,10 @@
         <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2146,10 +2199,10 @@
         <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2178,10 +2231,10 @@
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2210,10 +2263,10 @@
         <v>50</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2242,10 +2295,10 @@
         <v>51</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2274,10 +2327,10 @@
         <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2306,10 +2359,10 @@
         <v>53</v>
       </c>
       <c r="K30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2338,10 +2391,10 @@
         <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2370,10 +2423,10 @@
         <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2402,10 +2455,10 @@
         <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2434,10 +2487,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2466,10 +2519,10 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2498,10 +2551,10 @@
         <v>59</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2530,10 +2583,10 @@
         <v>60</v>
       </c>
       <c r="K37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2562,10 +2615,10 @@
         <v>61</v>
       </c>
       <c r="K38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2594,10 +2647,10 @@
         <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2626,10 +2679,10 @@
         <v>62</v>
       </c>
       <c r="K40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2658,10 +2711,10 @@
         <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2690,10 +2743,10 @@
         <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2722,10 +2775,10 @@
         <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2754,10 +2807,10 @@
         <v>66</v>
       </c>
       <c r="K44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2786,10 +2839,10 @@
         <v>67</v>
       </c>
       <c r="K45" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2818,10 +2871,10 @@
         <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2850,10 +2903,10 @@
         <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2882,10 +2935,10 @@
         <v>70</v>
       </c>
       <c r="K48" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2914,10 +2967,10 @@
         <v>71</v>
       </c>
       <c r="K49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2946,10 +2999,10 @@
         <v>72</v>
       </c>
       <c r="K50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2978,10 +3031,10 @@
         <v>73</v>
       </c>
       <c r="K51" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3010,10 +3063,10 @@
         <v>74</v>
       </c>
       <c r="K52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3042,10 +3095,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3074,10 +3127,10 @@
         <v>76</v>
       </c>
       <c r="K54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3106,10 +3159,10 @@
         <v>77</v>
       </c>
       <c r="K55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3138,10 +3191,10 @@
         <v>78</v>
       </c>
       <c r="K56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3170,10 +3223,10 @@
         <v>79</v>
       </c>
       <c r="K57" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3202,10 +3255,10 @@
         <v>80</v>
       </c>
       <c r="K58" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3234,10 +3287,10 @@
         <v>81</v>
       </c>
       <c r="K59" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3266,10 +3319,10 @@
         <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3298,10 +3351,10 @@
         <v>83</v>
       </c>
       <c r="K61" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3330,10 +3383,10 @@
         <v>84</v>
       </c>
       <c r="K62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3362,10 +3415,10 @@
         <v>85</v>
       </c>
       <c r="K63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3394,10 +3447,10 @@
         <v>14</v>
       </c>
       <c r="K64" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3426,10 +3479,10 @@
         <v>86</v>
       </c>
       <c r="K65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3458,10 +3511,10 @@
         <v>87</v>
       </c>
       <c r="K66" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3490,10 +3543,10 @@
         <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3522,10 +3575,10 @@
         <v>89</v>
       </c>
       <c r="K68" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3554,10 +3607,10 @@
         <v>90</v>
       </c>
       <c r="K69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3586,10 +3639,10 @@
         <v>91</v>
       </c>
       <c r="K70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3618,10 +3671,10 @@
         <v>92</v>
       </c>
       <c r="K71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3650,10 +3703,10 @@
         <v>93</v>
       </c>
       <c r="K72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3682,10 +3735,10 @@
         <v>94</v>
       </c>
       <c r="K73" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3714,10 +3767,10 @@
         <v>95</v>
       </c>
       <c r="K74" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3746,10 +3799,10 @@
         <v>96</v>
       </c>
       <c r="K75" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3778,10 +3831,10 @@
         <v>97</v>
       </c>
       <c r="K76" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3810,10 +3863,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3842,10 +3895,10 @@
         <v>99</v>
       </c>
       <c r="K78" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3874,10 +3927,10 @@
         <v>5</v>
       </c>
       <c r="K79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3906,10 +3959,10 @@
         <v>100</v>
       </c>
       <c r="K80" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3938,10 +3991,10 @@
         <v>101</v>
       </c>
       <c r="K81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3970,10 +4023,10 @@
         <v>102</v>
       </c>
       <c r="K82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4002,10 +4055,10 @@
         <v>103</v>
       </c>
       <c r="K83" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4034,10 +4087,10 @@
         <v>104</v>
       </c>
       <c r="K84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4066,10 +4119,10 @@
         <v>12</v>
       </c>
       <c r="K85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4098,10 +4151,10 @@
         <v>105</v>
       </c>
       <c r="K86" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4130,10 +4183,10 @@
         <v>106</v>
       </c>
       <c r="K87" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4162,10 +4215,10 @@
         <v>107</v>
       </c>
       <c r="K88" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4194,10 +4247,10 @@
         <v>108</v>
       </c>
       <c r="K89" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4226,10 +4279,10 @@
         <v>109</v>
       </c>
       <c r="K90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4258,10 +4311,10 @@
         <v>110</v>
       </c>
       <c r="K91" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4290,10 +4343,10 @@
         <v>111</v>
       </c>
       <c r="K92" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4322,10 +4375,10 @@
         <v>112</v>
       </c>
       <c r="K93" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4354,10 +4407,10 @@
         <v>113</v>
       </c>
       <c r="K94" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4386,10 +4439,10 @@
         <v>114</v>
       </c>
       <c r="K95" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4418,10 +4471,10 @@
         <v>115</v>
       </c>
       <c r="K96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4450,10 +4503,10 @@
         <v>116</v>
       </c>
       <c r="K97" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4482,10 +4535,10 @@
         <v>18</v>
       </c>
       <c r="K98" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4514,10 +4567,10 @@
         <v>117</v>
       </c>
       <c r="K99" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4546,10 +4599,10 @@
         <v>118</v>
       </c>
       <c r="K100" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4578,10 +4631,10 @@
         <v>119</v>
       </c>
       <c r="K101" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4610,10 +4663,10 @@
         <v>120</v>
       </c>
       <c r="K102" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4642,10 +4695,10 @@
         <v>121</v>
       </c>
       <c r="K103" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4674,10 +4727,10 @@
         <v>122</v>
       </c>
       <c r="K104" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4706,10 +4759,10 @@
         <v>123</v>
       </c>
       <c r="K105" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4738,10 +4791,10 @@
         <v>124</v>
       </c>
       <c r="K106" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4770,10 +4823,10 @@
         <v>125</v>
       </c>
       <c r="K107" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4802,10 +4855,10 @@
         <v>126</v>
       </c>
       <c r="K108" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4834,10 +4887,10 @@
         <v>127</v>
       </c>
       <c r="K109" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4866,10 +4919,10 @@
         <v>128</v>
       </c>
       <c r="K110" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4898,10 +4951,10 @@
         <v>129</v>
       </c>
       <c r="K111" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4930,10 +4983,10 @@
         <v>130</v>
       </c>
       <c r="K112" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4962,10 +5015,10 @@
         <v>131</v>
       </c>
       <c r="K113" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4994,10 +5047,10 @@
         <v>132</v>
       </c>
       <c r="K114" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5026,10 +5079,10 @@
         <v>133</v>
       </c>
       <c r="K115" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5058,10 +5111,10 @@
         <v>134</v>
       </c>
       <c r="K116" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5090,10 +5143,10 @@
         <v>16</v>
       </c>
       <c r="K117" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5122,10 +5175,10 @@
         <v>135</v>
       </c>
       <c r="K118" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5154,10 +5207,10 @@
         <v>136</v>
       </c>
       <c r="K119" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5186,10 +5239,10 @@
         <v>137</v>
       </c>
       <c r="K120" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5218,10 +5271,10 @@
         <v>138</v>
       </c>
       <c r="K121" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5250,10 +5303,10 @@
         <v>139</v>
       </c>
       <c r="K122" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5282,10 +5335,10 @@
         <v>140</v>
       </c>
       <c r="K123" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5314,10 +5367,10 @@
         <v>141</v>
       </c>
       <c r="K124" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5346,10 +5399,10 @@
         <v>142</v>
       </c>
       <c r="K125" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5378,10 +5431,10 @@
         <v>143</v>
       </c>
       <c r="K126" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5410,10 +5463,10 @@
         <v>144</v>
       </c>
       <c r="K127" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5442,10 +5495,10 @@
         <v>145</v>
       </c>
       <c r="K128" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5474,10 +5527,10 @@
         <v>146</v>
       </c>
       <c r="K129" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5506,10 +5559,10 @@
         <v>147</v>
       </c>
       <c r="K130" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5538,10 +5591,10 @@
         <v>148</v>
       </c>
       <c r="K131" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5570,10 +5623,10 @@
         <v>149</v>
       </c>
       <c r="K132" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5602,10 +5655,10 @@
         <v>150</v>
       </c>
       <c r="K133" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5634,10 +5687,10 @@
         <v>10</v>
       </c>
       <c r="K134" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5666,10 +5719,10 @@
         <v>151</v>
       </c>
       <c r="K135" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5698,10 +5751,10 @@
         <v>152</v>
       </c>
       <c r="K136" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5730,10 +5783,10 @@
         <v>153</v>
       </c>
       <c r="K137" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5762,10 +5815,10 @@
         <v>154</v>
       </c>
       <c r="K138" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5794,10 +5847,10 @@
         <v>155</v>
       </c>
       <c r="K139" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5826,10 +5879,10 @@
         <v>156</v>
       </c>
       <c r="K140" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5858,10 +5911,10 @@
         <v>157</v>
       </c>
       <c r="K141" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5890,10 +5943,10 @@
         <v>158</v>
       </c>
       <c r="K142" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5922,10 +5975,10 @@
         <v>159</v>
       </c>
       <c r="K143" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5954,10 +6007,10 @@
         <v>160</v>
       </c>
       <c r="K144" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5986,10 +6039,10 @@
         <v>7</v>
       </c>
       <c r="K145" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6018,10 +6071,10 @@
         <v>161</v>
       </c>
       <c r="K146" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6050,10 +6103,10 @@
         <v>162</v>
       </c>
       <c r="K147" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6082,10 +6135,10 @@
         <v>163</v>
       </c>
       <c r="K148" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6114,10 +6167,10 @@
         <v>164</v>
       </c>
       <c r="K149" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6146,10 +6199,10 @@
         <v>165</v>
       </c>
       <c r="K150" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6178,10 +6231,10 @@
         <v>166</v>
       </c>
       <c r="K151" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6210,10 +6263,10 @@
         <v>167</v>
       </c>
       <c r="K152" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6242,10 +6295,10 @@
         <v>7</v>
       </c>
       <c r="K153" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6274,10 +6327,10 @@
         <v>168</v>
       </c>
       <c r="K154" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6306,10 +6359,10 @@
         <v>169</v>
       </c>
       <c r="K155" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6338,10 +6391,10 @@
         <v>170</v>
       </c>
       <c r="K156" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6370,10 +6423,10 @@
         <v>171</v>
       </c>
       <c r="K157" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6402,10 +6455,10 @@
         <v>172</v>
       </c>
       <c r="K158" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6434,10 +6487,10 @@
         <v>173</v>
       </c>
       <c r="K159" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6466,10 +6519,10 @@
         <v>174</v>
       </c>
       <c r="K160" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6498,10 +6551,10 @@
         <v>5</v>
       </c>
       <c r="K161" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6530,10 +6583,10 @@
         <v>175</v>
       </c>
       <c r="K162" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6562,10 +6615,10 @@
         <v>176</v>
       </c>
       <c r="K163" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6594,10 +6647,10 @@
         <v>177</v>
       </c>
       <c r="K164" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6626,10 +6679,10 @@
         <v>178</v>
       </c>
       <c r="K165" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6658,7 +6711,7 @@
         <v>179</v>
       </c>
       <c r="K166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
